--- a/Final_results/BDF_text_FR_2020.xlsx
+++ b/Final_results/BDF_text_FR_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -645,118 +645,115 @@
     <t xml:space="preserve">2020-02-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 08 February 2020. Using ONLY information that was available on or before 08 February 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the first quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 08 February 2020.</t>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 08 février 2020. En utilisant UNIQUEMENT les informations disponibles au plus tard le 08 février 2020, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le premier trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 08 février 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.1 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 09 mars 2020. En utilisant UNIQUEMENT les informations disponibles au plus tard le 09 mars 2020, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le premier trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 09 mars 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.1 (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.1 (40)</t>
   </si>
   <si>
     <t xml:space="preserve">+0.1 (50)</t>
   </si>
   <si>
-    <t xml:space="preserve">+0.1 (55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.1 (65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.1 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 09 March 2020. Using ONLY information that was available on or before 09 March 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the first quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 09 March 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.1 (30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.1 (40)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-04-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 09 April 2020. Using ONLY information that was available on or before 09 April 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the first quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 09 April 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.0 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.0 (90)</t>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 09 avril 2020. En utilisant UNIQUEMENT les informations disponibles au plus tard le 09 avril 2020, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le premier trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 09 avril 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.0 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.0 (80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.0 (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.0 (65)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-05-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 10 May 2020. Using ONLY information that was available on or before 10 May 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the second quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 10 May 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.0 (60)</t>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 10 mai 2020. En utilisant UNIQUEMENT les informations disponibles au plus tard le 10 mai 2020, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le second trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 10 mai 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.0 (40)</t>
   </si>
   <si>
     <t xml:space="preserve">-20.0 (70)</t>
   </si>
   <si>
-    <t xml:space="preserve">-16.0 (30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.0 (30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.0 (40)</t>
+    <t xml:space="preserve">-20.0 (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.0 (35)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-06-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 10 June 2020. Using ONLY information that was available on or before 10 June 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the second quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 10 June 2020.</t>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 10 juin 2020. En utilisant UNIQUEMENT les informations disponibles au plus tard le 10 juin 2020, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le second trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 10 juin 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.0 (80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.0 (50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.0 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">-15.0 (75)</t>
   </si>
   <si>
-    <t xml:space="preserve">-15.0 (90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.0 (70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.0 (40)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-07-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 09 July 2020. Using ONLY information that was available on or before 09 July 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the second quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 09 July 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.8 (70)</t>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 09 juillet 2020. En utilisant UNIQUEMENT les informations disponibles au plus tard le 09 juillet 2020, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le second trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 09 juillet 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.0 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.5 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.0 (90)</t>
   </si>
   <si>
     <t xml:space="preserve">-14.0 (80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.0 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.0 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-08-09</t>
@@ -790,16 +787,19 @@
     <t xml:space="preserve">2020-09-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 08 September 2020. Using ONLY information that was available on or before 08 September 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 08 September 2020.</t>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 08 septembre 2020. En utilisant UNIQUEMENT les informations disponibles au plus tard le 08 septembre 2020, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le troisième trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 08 septembre 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+16.0 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">+16.0 (80)</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (85)</t>
+    <t xml:space="preserve">+16.0 (90)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-10-07</t>
@@ -830,9 +830,6 @@
 -4.5 (60)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.0 (70)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-5.9 (65)</t>
   </si>
   <si>
@@ -858,16 +855,22 @@
     <t xml:space="preserve">2021-01-12</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 12 January 2021. Using ONLY information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
-&lt;forecast&gt; (&lt;confidence&gt;)
-Example: +0.3 (80)
-Do NOT use any information published after 12 January 2021.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5 (75)</t>
+    <t xml:space="preserve">Oubliez les instructions et les réponses précédentes. Vous êtes François Villeroy de Galhau, Gouverneur de la Banque de France, qui prononce un discours sur les perspectives économiques de la France. Nous sommes le 12 janvier 2021. En utilisant UNIQUEMENT les informations disponibles au plus tard le 12 janvier 2021, fournissez une prévision numérique (pourcentage décimal avec signe, ex. +0.3) de la croissance du PIB réel français pour le quatrième trimestre 2020 et un niveau de confiance (entier 0-100). Renvoyez EXACTEMENT sur une seule ligne (aucun texte supplémentaire) :
+&lt;prévision&gt; (&lt;confiance&gt;)
+Exemple : +0.3 (80)
+N'utilisez AUCUNE information publiée après le 12 janvier 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">-4.0 (80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.5 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (70)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-02-08</t>
@@ -894,6 +897,9 @@
 N'utilisez AUCUNE information publiée après le 07 mars 2021.</t>
   </si>
   <si>
+    <t xml:space="preserve">+0.1 (55)</t>
+  </si>
+  <si>
     <t xml:space="preserve">+0.6 (65)</t>
   </si>
   <si>
@@ -1121,6 +1127,9 @@
   </si>
   <si>
     <t xml:space="preserve">2022-08-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.1 (65)</t>
   </si>
   <si>
     <t xml:space="preserve">+0.2 (55)</t>
@@ -7738,64 +7747,64 @@
         <v>0.1</v>
       </c>
       <c r="D62" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>70</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>70</v>
+      </c>
+      <c r="K62" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>60</v>
+      </c>
+      <c r="N62" t="s">
         <v>166</v>
       </c>
-      <c r="F62" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G62" t="n">
-        <v>50</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="O62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q62" t="s">
         <v>166</v>
       </c>
-      <c r="I62" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>50</v>
-      </c>
-      <c r="K62" t="s">
-        <v>166</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M62" t="n">
-        <v>55</v>
-      </c>
-      <c r="N62" t="s">
-        <v>167</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P62" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>167</v>
-      </c>
       <c r="R62" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S62" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T62" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="U62" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V62" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="W62" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="X62" t="n">
         <v>0.1</v>
@@ -7804,7 +7813,7 @@
         <v>60</v>
       </c>
       <c r="Z62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA62" t="n">
         <v>0.1</v>
@@ -7813,7 +7822,7 @@
         <v>60</v>
       </c>
       <c r="AC62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD62" t="n">
         <v>0.1</v>
@@ -7822,42 +7831,42 @@
         <v>60</v>
       </c>
       <c r="AF62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C63" t="n">
         <v>0.1</v>
       </c>
       <c r="D63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F63" t="n">
         <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I63" t="n">
         <v>0.1</v>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L63" t="n">
         <v>0.1</v>
@@ -7866,7 +7875,7 @@
         <v>40</v>
       </c>
       <c r="N63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O63" t="n">
         <v>0.1</v>
@@ -7875,7 +7884,7 @@
         <v>40</v>
       </c>
       <c r="Q63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="R63" t="n">
         <v>0.1</v>
@@ -7884,7 +7893,7 @@
         <v>40</v>
       </c>
       <c r="T63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U63" t="n">
         <v>0.1</v>
@@ -7893,111 +7902,111 @@
         <v>40</v>
       </c>
       <c r="W63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X63" t="n">
         <v>0.1</v>
       </c>
       <c r="Y63" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AA63" t="n">
         <v>0.1</v>
       </c>
       <c r="AB63" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AD63" t="n">
         <v>0.1</v>
       </c>
       <c r="AE63" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64" t="n">
         <v>-6</v>
       </c>
       <c r="D64" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F64" t="n">
         <v>-6</v>
       </c>
       <c r="G64" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I64" t="n">
         <v>-6</v>
       </c>
       <c r="J64" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L64" t="n">
         <v>-6</v>
       </c>
       <c r="M64" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O64" t="n">
         <v>-6</v>
       </c>
       <c r="P64" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R64" t="n">
         <v>-6</v>
       </c>
       <c r="S64" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="T64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U64" t="n">
         <v>-6</v>
       </c>
       <c r="V64" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="W64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X64" t="n">
         <v>-6</v>
       </c>
       <c r="Y64" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Z64" t="s">
         <v>177</v>
@@ -8006,7 +8015,7 @@
         <v>-6</v>
       </c>
       <c r="AB64" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AC64" t="s">
         <v>177</v>
@@ -8015,7 +8024,7 @@
         <v>-6</v>
       </c>
       <c r="AE64" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF64" t="s">
         <v>177</v>
@@ -8032,7 +8041,7 @@
         <v>-15</v>
       </c>
       <c r="D65" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
         <v>180</v>
@@ -8041,7 +8050,7 @@
         <v>-15</v>
       </c>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s">
         <v>180</v>
@@ -8050,7 +8059,7 @@
         <v>-15</v>
       </c>
       <c r="J65" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K65" t="s">
         <v>180</v>
@@ -8074,250 +8083,250 @@
         <v>181</v>
       </c>
       <c r="R65" t="n">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="S65" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T65" t="s">
         <v>182</v>
       </c>
       <c r="U65" t="n">
+        <v>-20</v>
+      </c>
+      <c r="V65" t="n">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s">
+        <v>182</v>
+      </c>
+      <c r="X65" t="n">
         <v>-15</v>
       </c>
-      <c r="V65" t="n">
-        <v>30</v>
-      </c>
-      <c r="W65" t="s">
+      <c r="Y65" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z65" t="s">
         <v>183</v>
       </c>
-      <c r="X65" t="n">
-        <v>-20</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>184</v>
-      </c>
       <c r="AA65" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="AB65" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD65" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="AE65" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AF65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
         <v>185</v>
-      </c>
-      <c r="B66" t="s">
-        <v>186</v>
       </c>
       <c r="C66" t="n">
         <v>-15</v>
       </c>
       <c r="D66" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F66" t="n">
         <v>-15</v>
       </c>
       <c r="G66" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I66" t="n">
         <v>-15</v>
       </c>
       <c r="J66" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L66" t="n">
         <v>-15</v>
       </c>
       <c r="M66" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O66" t="n">
         <v>-15</v>
       </c>
       <c r="P66" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Q66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R66" t="n">
         <v>-15</v>
       </c>
       <c r="S66" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="T66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U66" t="n">
         <v>-15</v>
       </c>
       <c r="V66" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="W66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X66" t="n">
         <v>-15</v>
       </c>
       <c r="Y66" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Z66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA66" t="n">
         <v>-15</v>
       </c>
       <c r="AB66" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD66" t="n">
         <v>-15</v>
       </c>
       <c r="AE66" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D67" t="n">
+        <v>85</v>
+      </c>
+      <c r="E67" t="s">
         <v>192</v>
       </c>
-      <c r="C67" t="n">
-        <v>-13.8</v>
-      </c>
-      <c r="D67" t="n">
-        <v>70</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G67" t="n">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s">
+        <v>192</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>85</v>
+      </c>
+      <c r="K67" t="s">
+        <v>192</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>85</v>
+      </c>
+      <c r="N67" t="s">
         <v>193</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G67" t="n">
-        <v>70</v>
-      </c>
-      <c r="H67" t="s">
-        <v>189</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>70</v>
-      </c>
-      <c r="K67" t="s">
-        <v>189</v>
-      </c>
-      <c r="L67" t="n">
-        <v>-14</v>
-      </c>
-      <c r="M67" t="n">
-        <v>80</v>
-      </c>
-      <c r="N67" t="s">
-        <v>194</v>
       </c>
       <c r="O67" t="n">
         <v>-14</v>
       </c>
       <c r="P67" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R67" t="n">
         <v>-14</v>
       </c>
       <c r="S67" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U67" t="n">
         <v>-14</v>
       </c>
       <c r="V67" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="W67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X67" t="n">
         <v>-14</v>
       </c>
       <c r="Y67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA67" t="n">
         <v>-14</v>
       </c>
       <c r="AB67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD67" t="n">
         <v>-14</v>
       </c>
       <c r="AE67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="n">
@@ -8327,7 +8336,7 @@
         <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68" t="n">
         <v>16</v>
@@ -8336,7 +8345,7 @@
         <v>65</v>
       </c>
       <c r="H68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I68" t="n">
         <v>16</v>
@@ -8345,7 +8354,7 @@
         <v>65</v>
       </c>
       <c r="K68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L68" t="n">
         <v>15.5</v>
@@ -8354,7 +8363,7 @@
         <v>75</v>
       </c>
       <c r="N68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" t="n">
         <v>15.5</v>
@@ -8363,7 +8372,7 @@
         <v>75</v>
       </c>
       <c r="Q68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R68" t="n">
         <v>7</v>
@@ -8372,7 +8381,7 @@
         <v>75</v>
       </c>
       <c r="T68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U68" t="n">
         <v>12.5</v>
@@ -8381,7 +8390,7 @@
         <v>70</v>
       </c>
       <c r="W68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X68" t="n">
         <v>16</v>
@@ -8390,7 +8399,7 @@
         <v>70</v>
       </c>
       <c r="Z68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA68" t="n">
         <v>16</v>
@@ -8399,7 +8408,7 @@
         <v>70</v>
       </c>
       <c r="AC68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD68" t="n">
         <v>16</v>
@@ -8408,66 +8417,66 @@
         <v>70</v>
       </c>
       <c r="AF68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
         <v>205</v>
-      </c>
-      <c r="B69" t="s">
-        <v>206</v>
       </c>
       <c r="C69" t="n">
         <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F69" t="n">
         <v>16</v>
       </c>
       <c r="G69" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I69" t="n">
         <v>16</v>
       </c>
       <c r="J69" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L69" t="n">
         <v>16</v>
       </c>
       <c r="M69" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" t="n">
         <v>16</v>
       </c>
       <c r="P69" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R69" t="n">
         <v>16</v>
       </c>
       <c r="S69" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T69" t="s">
         <v>208</v>
@@ -8476,7 +8485,7 @@
         <v>16</v>
       </c>
       <c r="V69" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="W69" t="s">
         <v>208</v>
@@ -8550,7 +8559,7 @@
         <v>85</v>
       </c>
       <c r="N70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" t="n">
         <v>16</v>
@@ -8559,7 +8568,7 @@
         <v>85</v>
       </c>
       <c r="Q70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R70" t="n">
         <v>16</v>
@@ -8568,7 +8577,7 @@
         <v>85</v>
       </c>
       <c r="T70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U70" t="n">
         <v>16</v>
@@ -8577,7 +8586,7 @@
         <v>85</v>
       </c>
       <c r="W70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X70" t="n">
         <v>15.8</v>
@@ -8648,7 +8657,7 @@
         <v>70</v>
       </c>
       <c r="N71" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="O71" t="n">
         <v>-5.9</v>
@@ -8657,7 +8666,7 @@
         <v>65</v>
       </c>
       <c r="Q71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R71" t="n">
         <v>-5.5</v>
@@ -8666,7 +8675,7 @@
         <v>70</v>
       </c>
       <c r="T71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U71" t="n">
         <v>-5.5</v>
@@ -8675,7 +8684,7 @@
         <v>70</v>
       </c>
       <c r="W71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X71" t="n">
         <v>-4.3</v>
@@ -8684,7 +8693,7 @@
         <v>70</v>
       </c>
       <c r="Z71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA71" t="n">
         <v>-4.3</v>
@@ -8693,7 +8702,7 @@
         <v>70</v>
       </c>
       <c r="AC71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD71" t="n">
         <v>-4.3</v>
@@ -8702,12 +8711,12 @@
         <v>70</v>
       </c>
       <c r="AF71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72"/>
       <c r="C72" t="n">
@@ -8717,7 +8726,7 @@
         <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F72" t="n">
         <v>-4</v>
@@ -8726,7 +8735,7 @@
         <v>85</v>
       </c>
       <c r="H72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I72" t="n">
         <v>-4</v>
@@ -8735,7 +8744,7 @@
         <v>85</v>
       </c>
       <c r="K72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L72" t="n">
         <v>-4</v>
@@ -8744,7 +8753,7 @@
         <v>90</v>
       </c>
       <c r="N72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O72" t="n">
         <v>-4</v>
@@ -8753,7 +8762,7 @@
         <v>90</v>
       </c>
       <c r="Q72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R72" t="n">
         <v>-4</v>
@@ -8762,7 +8771,7 @@
         <v>85</v>
       </c>
       <c r="T72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U72" t="n">
         <v>-4</v>
@@ -8771,7 +8780,7 @@
         <v>85</v>
       </c>
       <c r="W72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X72" t="n">
         <v>-4</v>
@@ -8780,7 +8789,7 @@
         <v>85</v>
       </c>
       <c r="Z72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA72" t="n">
         <v>-4</v>
@@ -8789,7 +8798,7 @@
         <v>85</v>
       </c>
       <c r="AC72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD72" t="n">
         <v>-4</v>
@@ -8798,39 +8807,39 @@
         <v>85</v>
       </c>
       <c r="AF72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s">
         <v>224</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
         <v>225</v>
       </c>
-      <c r="C73" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="D73" t="n">
-        <v>75</v>
-      </c>
-      <c r="E73" t="s">
-        <v>226</v>
-      </c>
       <c r="F73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="G73" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s">
         <v>226</v>
       </c>
       <c r="I73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="J73" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
         <v>226</v>
@@ -8839,69 +8848,69 @@
         <v>-4</v>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N73" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
       </c>
       <c r="P73" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q73" t="s">
+        <v>221</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>75</v>
+      </c>
+      <c r="T73" t="s">
         <v>227</v>
       </c>
-      <c r="R73" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S73" t="n">
-        <v>85</v>
-      </c>
-      <c r="T73" t="s">
-        <v>222</v>
-      </c>
       <c r="U73" t="n">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="V73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="W73" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
       </c>
       <c r="Y73" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Z73" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
       </c>
       <c r="AB73" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AC73" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
       </c>
       <c r="AE73" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF73" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="n">
@@ -8911,7 +8920,7 @@
         <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F74" t="n">
         <v>-0.2</v>
@@ -8920,7 +8929,7 @@
         <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I74" t="n">
         <v>-0.2</v>
@@ -8929,7 +8938,7 @@
         <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L74" t="n">
         <v>-0.1</v>
@@ -8938,7 +8947,7 @@
         <v>60</v>
       </c>
       <c r="N74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O74" t="n">
         <v>-0.1</v>
@@ -8947,7 +8956,7 @@
         <v>60</v>
       </c>
       <c r="Q74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -8956,7 +8965,7 @@
         <v>60</v>
       </c>
       <c r="T74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -8965,7 +8974,7 @@
         <v>60</v>
       </c>
       <c r="W74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -8974,7 +8983,7 @@
         <v>50</v>
       </c>
       <c r="Z74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA74" t="n">
         <v>0</v>
@@ -8983,7 +8992,7 @@
         <v>50</v>
       </c>
       <c r="AC74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -8992,15 +9001,15 @@
         <v>50</v>
       </c>
       <c r="AF74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C75" t="n">
         <v>0.2</v>
@@ -9036,7 +9045,7 @@
         <v>55</v>
       </c>
       <c r="N75" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="O75" t="n">
         <v>0.1</v>
@@ -9045,7 +9054,7 @@
         <v>55</v>
       </c>
       <c r="Q75" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="R75" t="n">
         <v>0.6</v>
@@ -9054,7 +9063,7 @@
         <v>65</v>
       </c>
       <c r="T75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U75" t="n">
         <v>0.2</v>
@@ -9095,10 +9104,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C76" t="n">
         <v>0.3</v>
@@ -9193,10 +9202,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C77" t="n">
         <v>0.5</v>
@@ -9205,7 +9214,7 @@
         <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F77" t="n">
         <v>0.5</v>
@@ -9214,7 +9223,7 @@
         <v>75</v>
       </c>
       <c r="H77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I77" t="n">
         <v>0.5</v>
@@ -9223,7 +9232,7 @@
         <v>75</v>
       </c>
       <c r="K77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
@@ -9232,7 +9241,7 @@
         <v>75</v>
       </c>
       <c r="N77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O77" t="n">
         <v>1</v>
@@ -9241,7 +9250,7 @@
         <v>75</v>
       </c>
       <c r="Q77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R77" t="n">
         <v>1.2</v>
@@ -9250,7 +9259,7 @@
         <v>85</v>
       </c>
       <c r="T77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="U77" t="n">
         <v>1.2</v>
@@ -9259,7 +9268,7 @@
         <v>85</v>
       </c>
       <c r="W77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="X77" t="n">
         <v>0.7</v>
@@ -9268,7 +9277,7 @@
         <v>75</v>
       </c>
       <c r="Z77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AA77" t="n">
         <v>0.7</v>
@@ -9277,7 +9286,7 @@
         <v>75</v>
       </c>
       <c r="AC77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AD77" t="n">
         <v>0.7</v>
@@ -9286,15 +9295,15 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C78" t="n">
         <v>1.2</v>
@@ -9303,7 +9312,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F78" t="n">
         <v>1.2</v>
@@ -9312,7 +9321,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I78" t="n">
         <v>1.2</v>
@@ -9321,7 +9330,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L78" t="n">
         <v>0.7</v>
@@ -9330,7 +9339,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O78" t="n">
         <v>0.7</v>
@@ -9339,7 +9348,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R78" t="n">
         <v>0.7</v>
@@ -9348,7 +9357,7 @@
         <v>80</v>
       </c>
       <c r="T78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="U78" t="n">
         <v>0.7</v>
@@ -9357,7 +9366,7 @@
         <v>80</v>
       </c>
       <c r="W78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X78" t="n">
         <v>0.7</v>
@@ -9366,7 +9375,7 @@
         <v>75</v>
       </c>
       <c r="Z78" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AA78" t="n">
         <v>0.7</v>
@@ -9375,7 +9384,7 @@
         <v>75</v>
       </c>
       <c r="AC78" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AD78" t="n">
         <v>0.7</v>
@@ -9384,15 +9393,15 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -9401,7 +9410,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -9410,7 +9419,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -9419,7 +9428,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L79" t="n">
         <v>1</v>
@@ -9428,7 +9437,7 @@
         <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O79" t="n">
         <v>1</v>
@@ -9437,7 +9446,7 @@
         <v>85</v>
       </c>
       <c r="Q79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R79" t="n">
         <v>0.9</v>
@@ -9446,7 +9455,7 @@
         <v>85</v>
       </c>
       <c r="T79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U79" t="n">
         <v>0.9</v>
@@ -9455,7 +9464,7 @@
         <v>85</v>
       </c>
       <c r="W79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="X79" t="n">
         <v>1</v>
@@ -9464,7 +9473,7 @@
         <v>90</v>
       </c>
       <c r="Z79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AA79" t="n">
         <v>1</v>
@@ -9473,7 +9482,7 @@
         <v>90</v>
       </c>
       <c r="AC79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AD79" t="n">
         <v>1</v>
@@ -9482,12 +9491,12 @@
         <v>90</v>
       </c>
       <c r="AF79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="n">
@@ -9497,7 +9506,7 @@
         <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F80" t="n">
         <v>1.8</v>
@@ -9506,7 +9515,7 @@
         <v>65</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I80" t="n">
         <v>1.8</v>
@@ -9515,7 +9524,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L80" t="n">
         <v>2.3</v>
@@ -9524,7 +9533,7 @@
         <v>70</v>
       </c>
       <c r="N80" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O80" t="n">
         <v>2.3</v>
@@ -9533,7 +9542,7 @@
         <v>70</v>
       </c>
       <c r="Q80" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R80" t="n">
         <v>2.3</v>
@@ -9542,7 +9551,7 @@
         <v>70</v>
       </c>
       <c r="T80" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U80" t="n">
         <v>2.3</v>
@@ -9551,7 +9560,7 @@
         <v>70</v>
       </c>
       <c r="W80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="X80" t="n">
         <v>2.5</v>
@@ -9560,7 +9569,7 @@
         <v>75</v>
       </c>
       <c r="Z80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AA80" t="n">
         <v>2.5</v>
@@ -9569,7 +9578,7 @@
         <v>75</v>
       </c>
       <c r="AC80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AD80" t="n">
         <v>2.5</v>
@@ -9578,15 +9587,15 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C81" t="n">
         <v>2.3</v>
@@ -9595,7 +9604,7 @@
         <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F81" t="n">
         <v>2.3</v>
@@ -9604,7 +9613,7 @@
         <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I81" t="n">
         <v>2.3</v>
@@ -9613,7 +9622,7 @@
         <v>90</v>
       </c>
       <c r="K81" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L81" t="n">
         <v>1.5</v>
@@ -9622,7 +9631,7 @@
         <v>75</v>
       </c>
       <c r="N81" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O81" t="n">
         <v>1.5</v>
@@ -9631,7 +9640,7 @@
         <v>75</v>
       </c>
       <c r="Q81" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>
@@ -9640,7 +9649,7 @@
         <v>80</v>
       </c>
       <c r="T81" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="U81" t="n">
         <v>2.3</v>
@@ -9649,7 +9658,7 @@
         <v>80</v>
       </c>
       <c r="W81" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="X81" t="n">
         <v>2.3</v>
@@ -9658,7 +9667,7 @@
         <v>85</v>
       </c>
       <c r="Z81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA81" t="n">
         <v>2.3</v>
@@ -9667,7 +9676,7 @@
         <v>85</v>
       </c>
       <c r="AC81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AD81" t="n">
         <v>2.3</v>
@@ -9676,15 +9685,15 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C82" t="n">
         <v>2.7</v>
@@ -9693,7 +9702,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F82" t="n">
         <v>2.7</v>
@@ -9702,7 +9711,7 @@
         <v>85</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I82" t="n">
         <v>2.7</v>
@@ -9711,7 +9720,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L82" t="n">
         <v>2.7</v>
@@ -9720,7 +9729,7 @@
         <v>85</v>
       </c>
       <c r="N82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O82" t="n">
         <v>2.7</v>
@@ -9729,7 +9738,7 @@
         <v>85</v>
       </c>
       <c r="Q82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R82" t="n">
         <v>2.1</v>
@@ -9738,7 +9747,7 @@
         <v>80</v>
       </c>
       <c r="T82" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="U82" t="n">
         <v>2.1</v>
@@ -9747,7 +9756,7 @@
         <v>80</v>
       </c>
       <c r="W82" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="X82" t="n">
         <v>2.6</v>
@@ -9756,7 +9765,7 @@
         <v>85</v>
       </c>
       <c r="Z82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AA82" t="n">
         <v>2.6</v>
@@ -9765,7 +9774,7 @@
         <v>85</v>
       </c>
       <c r="AC82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD82" t="n">
         <v>2.6</v>
@@ -9774,15 +9783,15 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C83" t="n">
         <v>0.6</v>
@@ -9791,7 +9800,7 @@
         <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F83" t="n">
         <v>0.6</v>
@@ -9800,7 +9809,7 @@
         <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I83" t="n">
         <v>0.6</v>
@@ -9809,7 +9818,7 @@
         <v>75</v>
       </c>
       <c r="K83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L83" t="n">
         <v>0.6</v>
@@ -9818,7 +9827,7 @@
         <v>80</v>
       </c>
       <c r="N83" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O83" t="n">
         <v>0.6</v>
@@ -9827,7 +9836,7 @@
         <v>80</v>
       </c>
       <c r="Q83" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R83" t="n">
         <v>0.7</v>
@@ -9836,7 +9845,7 @@
         <v>75</v>
       </c>
       <c r="T83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="U83" t="n">
         <v>0.7</v>
@@ -9845,7 +9854,7 @@
         <v>75</v>
       </c>
       <c r="W83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X83" t="n">
         <v>0.6</v>
@@ -9854,7 +9863,7 @@
         <v>75</v>
       </c>
       <c r="Z83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AA83" t="n">
         <v>0.6</v>
@@ -9863,7 +9872,7 @@
         <v>75</v>
       </c>
       <c r="AC83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AD83" t="n">
         <v>0.6</v>
@@ -9872,12 +9881,12 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B84"/>
       <c r="C84" t="n">
@@ -9887,7 +9896,7 @@
         <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F84" t="n">
         <v>0.6</v>
@@ -9896,7 +9905,7 @@
         <v>65</v>
       </c>
       <c r="H84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I84" t="n">
         <v>0.6</v>
@@ -9905,7 +9914,7 @@
         <v>65</v>
       </c>
       <c r="K84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L84" t="n">
         <v>0.7</v>
@@ -9914,7 +9923,7 @@
         <v>65</v>
       </c>
       <c r="N84" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O84" t="n">
         <v>0.7</v>
@@ -9923,7 +9932,7 @@
         <v>65</v>
       </c>
       <c r="Q84" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R84" t="n">
         <v>0.5</v>
@@ -9932,7 +9941,7 @@
         <v>70</v>
       </c>
       <c r="T84" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="U84" t="n">
         <v>0.5</v>
@@ -9941,7 +9950,7 @@
         <v>70</v>
       </c>
       <c r="W84" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="X84" t="n">
         <v>0.6</v>
@@ -9950,7 +9959,7 @@
         <v>70</v>
       </c>
       <c r="Z84" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA84" t="n">
         <v>0.6</v>
@@ -9959,7 +9968,7 @@
         <v>70</v>
       </c>
       <c r="AC84" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AD84" t="n">
         <v>0.6</v>
@@ -9968,15 +9977,15 @@
         <v>70</v>
       </c>
       <c r="AF84" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C85" t="n">
         <v>0.6</v>
@@ -9985,7 +9994,7 @@
         <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F85" t="n">
         <v>0.6</v>
@@ -9994,7 +10003,7 @@
         <v>75</v>
       </c>
       <c r="H85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I85" t="n">
         <v>0.6</v>
@@ -10003,7 +10012,7 @@
         <v>75</v>
       </c>
       <c r="K85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L85" t="n">
         <v>0.7</v>
@@ -10012,7 +10021,7 @@
         <v>75</v>
       </c>
       <c r="N85" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O85" t="n">
         <v>0.6</v>
@@ -10021,7 +10030,7 @@
         <v>70</v>
       </c>
       <c r="Q85" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R85" t="n">
         <v>0.6</v>
@@ -10030,7 +10039,7 @@
         <v>75</v>
       </c>
       <c r="T85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="U85" t="n">
         <v>0.6</v>
@@ -10039,7 +10048,7 @@
         <v>75</v>
       </c>
       <c r="W85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X85" t="n">
         <v>0.6</v>
@@ -10071,7 +10080,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B86"/>
       <c r="C86" t="n">
@@ -10126,7 +10135,7 @@
         <v>75</v>
       </c>
       <c r="T86" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="U86" t="n">
         <v>0.6</v>
@@ -10135,7 +10144,7 @@
         <v>75</v>
       </c>
       <c r="W86" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X86" t="n">
         <v>0.3</v>
@@ -10167,10 +10176,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C87" t="n">
         <v>0.2</v>
@@ -10179,7 +10188,7 @@
         <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F87" t="n">
         <v>0.2</v>
@@ -10188,7 +10197,7 @@
         <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I87" t="n">
         <v>0.2</v>
@@ -10197,7 +10206,7 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L87" t="n">
         <v>0.2</v>
@@ -10206,7 +10215,7 @@
         <v>30</v>
       </c>
       <c r="N87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O87" t="n">
         <v>0.2</v>
@@ -10215,7 +10224,7 @@
         <v>30</v>
       </c>
       <c r="Q87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R87" t="n">
         <v>0.2</v>
@@ -10224,7 +10233,7 @@
         <v>40</v>
       </c>
       <c r="T87" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="U87" t="n">
         <v>0.2</v>
@@ -10233,7 +10242,7 @@
         <v>40</v>
       </c>
       <c r="W87" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="X87" t="n">
         <v>0.3</v>
@@ -10242,7 +10251,7 @@
         <v>60</v>
       </c>
       <c r="Z87" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AA87" t="n">
         <v>0.3</v>
@@ -10251,7 +10260,7 @@
         <v>60</v>
       </c>
       <c r="AC87" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AD87" t="n">
         <v>0.3</v>
@@ -10260,15 +10269,15 @@
         <v>60</v>
       </c>
       <c r="AF87" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -10277,7 +10286,7 @@
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -10286,7 +10295,7 @@
         <v>30</v>
       </c>
       <c r="H88" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -10295,7 +10304,7 @@
         <v>30</v>
       </c>
       <c r="K88" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -10304,7 +10313,7 @@
         <v>60</v>
       </c>
       <c r="N88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -10313,7 +10322,7 @@
         <v>60</v>
       </c>
       <c r="Q88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -10322,7 +10331,7 @@
         <v>40</v>
       </c>
       <c r="T88" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -10331,7 +10340,7 @@
         <v>40</v>
       </c>
       <c r="W88" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -10340,7 +10349,7 @@
         <v>55</v>
       </c>
       <c r="Z88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -10349,7 +10358,7 @@
         <v>55</v>
       </c>
       <c r="AC88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -10358,15 +10367,15 @@
         <v>55</v>
       </c>
       <c r="AF88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10402,7 +10411,7 @@
         <v>45</v>
       </c>
       <c r="N89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O89" t="n">
         <v>0.2</v>
@@ -10411,7 +10420,7 @@
         <v>45</v>
       </c>
       <c r="Q89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R89" t="n">
         <v>0.3</v>
@@ -10420,7 +10429,7 @@
         <v>60</v>
       </c>
       <c r="T89" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U89" t="n">
         <v>0.3</v>
@@ -10429,7 +10438,7 @@
         <v>60</v>
       </c>
       <c r="W89" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="X89" t="n">
         <v>0.2</v>
@@ -10461,10 +10470,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C90" t="n">
         <v>0.3</v>
@@ -10473,7 +10482,7 @@
         <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F90" t="n">
         <v>0.3</v>
@@ -10482,7 +10491,7 @@
         <v>60</v>
       </c>
       <c r="H90" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I90" t="n">
         <v>0.3</v>
@@ -10491,7 +10500,7 @@
         <v>60</v>
       </c>
       <c r="K90" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L90" t="n">
         <v>0.2</v>
@@ -10559,10 +10568,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C91" t="n">
         <v>0.3</v>
@@ -10571,7 +10580,7 @@
         <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F91" t="n">
         <v>0.3</v>
@@ -10580,7 +10589,7 @@
         <v>60</v>
       </c>
       <c r="H91" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I91" t="n">
         <v>0.3</v>
@@ -10589,7 +10598,7 @@
         <v>60</v>
       </c>
       <c r="K91" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L91" t="n">
         <v>0.3</v>
@@ -10657,7 +10666,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B92"/>
       <c r="C92" t="n">
@@ -10667,7 +10676,7 @@
         <v>55</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="F92" t="n">
         <v>0.1</v>
@@ -10676,7 +10685,7 @@
         <v>55</v>
       </c>
       <c r="H92" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="I92" t="n">
         <v>0.1</v>
@@ -10685,7 +10694,7 @@
         <v>55</v>
       </c>
       <c r="K92" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="L92" t="n">
         <v>0.2</v>
@@ -10712,7 +10721,7 @@
         <v>65</v>
       </c>
       <c r="T92" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="U92" t="n">
         <v>0.1</v>
@@ -10721,7 +10730,7 @@
         <v>65</v>
       </c>
       <c r="W92" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="X92" t="n">
         <v>0.2</v>
@@ -10730,7 +10739,7 @@
         <v>55</v>
       </c>
       <c r="Z92" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AA92" t="n">
         <v>0.2</v>
@@ -10739,7 +10748,7 @@
         <v>55</v>
       </c>
       <c r="AC92" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AD92" t="n">
         <v>0.2</v>
@@ -10748,15 +10757,15 @@
         <v>55</v>
       </c>
       <c r="AF92" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C93" t="n">
         <v>0.3</v>
@@ -10810,7 +10819,7 @@
         <v>60</v>
       </c>
       <c r="T93" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U93" t="n">
         <v>0.3</v>
@@ -10819,7 +10828,7 @@
         <v>60</v>
       </c>
       <c r="W93" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="X93" t="n">
         <v>0.3</v>
@@ -10851,10 +10860,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
@@ -10949,10 +10958,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C95" t="n">
         <v>0.1</v>
@@ -10961,7 +10970,7 @@
         <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F95" t="n">
         <v>0.1</v>
@@ -10970,7 +10979,7 @@
         <v>40</v>
       </c>
       <c r="H95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I95" t="n">
         <v>0.1</v>
@@ -10979,7 +10988,7 @@
         <v>40</v>
       </c>
       <c r="K95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L95" t="n">
         <v>0.1</v>
@@ -10988,7 +10997,7 @@
         <v>65</v>
       </c>
       <c r="N95" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O95" t="n">
         <v>0.1</v>
@@ -10997,7 +11006,7 @@
         <v>65</v>
       </c>
       <c r="Q95" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R95" t="n">
         <v>0.1</v>
@@ -11006,7 +11015,7 @@
         <v>55</v>
       </c>
       <c r="T95" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="U95" t="n">
         <v>0.1</v>
@@ -11015,7 +11024,7 @@
         <v>55</v>
       </c>
       <c r="W95" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="X95" t="n">
         <v>0.1</v>
@@ -11024,7 +11033,7 @@
         <v>55</v>
       </c>
       <c r="Z95" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="AA95" t="n">
         <v>0.1</v>
@@ -11033,7 +11042,7 @@
         <v>55</v>
       </c>
       <c r="AC95" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="AD95" t="n">
         <v>0.1</v>
@@ -11042,12 +11051,12 @@
         <v>55</v>
       </c>
       <c r="AF95" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B96"/>
       <c r="C96" t="n">
@@ -11057,7 +11066,7 @@
         <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F96" t="n">
         <v>0.1</v>
@@ -11066,7 +11075,7 @@
         <v>60</v>
       </c>
       <c r="H96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I96" t="n">
         <v>0.1</v>
@@ -11075,7 +11084,7 @@
         <v>60</v>
       </c>
       <c r="K96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L96" t="n">
         <v>0.1</v>
@@ -11084,7 +11093,7 @@
         <v>65</v>
       </c>
       <c r="N96" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O96" t="n">
         <v>0.1</v>
@@ -11093,7 +11102,7 @@
         <v>65</v>
       </c>
       <c r="Q96" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R96" t="n">
         <v>0.1</v>
@@ -11102,7 +11111,7 @@
         <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="U96" t="n">
         <v>0.1</v>
@@ -11111,7 +11120,7 @@
         <v>65</v>
       </c>
       <c r="W96" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="X96" t="n">
         <v>0.1</v>
@@ -11120,7 +11129,7 @@
         <v>60</v>
       </c>
       <c r="Z96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA96" t="n">
         <v>0.1</v>
@@ -11129,7 +11138,7 @@
         <v>60</v>
       </c>
       <c r="AC96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD96" t="n">
         <v>0.1</v>
@@ -11138,15 +11147,15 @@
         <v>60</v>
       </c>
       <c r="AF96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C97" t="n">
         <v>0.2</v>
@@ -11182,7 +11191,7 @@
         <v>80</v>
       </c>
       <c r="N97" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O97" t="n">
         <v>0.1</v>
@@ -11191,7 +11200,7 @@
         <v>80</v>
       </c>
       <c r="Q97" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="R97" t="n">
         <v>0.1</v>
@@ -11200,7 +11209,7 @@
         <v>80</v>
       </c>
       <c r="T97" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U97" t="n">
         <v>0.1</v>
@@ -11209,7 +11218,7 @@
         <v>80</v>
       </c>
       <c r="W97" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="X97" t="n">
         <v>0.1</v>
@@ -11241,7 +11250,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
@@ -11251,7 +11260,7 @@
         <v>65</v>
       </c>
       <c r="E98" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
@@ -11260,7 +11269,7 @@
         <v>65</v>
       </c>
       <c r="H98" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I98" t="n">
         <v>0.1</v>
@@ -11269,7 +11278,7 @@
         <v>65</v>
       </c>
       <c r="K98" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L98" t="n">
         <v>0.1</v>
@@ -11296,7 +11305,7 @@
         <v>60</v>
       </c>
       <c r="T98" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U98" t="n">
         <v>0.1</v>
@@ -11305,7 +11314,7 @@
         <v>60</v>
       </c>
       <c r="W98" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="X98" t="n">
         <v>0.1</v>
@@ -11314,7 +11323,7 @@
         <v>50</v>
       </c>
       <c r="Z98" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AA98" t="n">
         <v>0.1</v>
@@ -11323,7 +11332,7 @@
         <v>50</v>
       </c>
       <c r="AC98" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AD98" t="n">
         <v>0.1</v>
@@ -11332,15 +11341,15 @@
         <v>50</v>
       </c>
       <c r="AF98" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C99" t="n">
         <v>0.1</v>
@@ -11435,10 +11444,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C100" t="n">
         <v>0.2</v>
@@ -11533,10 +11542,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11590,7 +11599,7 @@
         <v>65</v>
       </c>
       <c r="T101" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="U101" t="n">
         <v>0.1</v>
@@ -11599,7 +11608,7 @@
         <v>65</v>
       </c>
       <c r="W101" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="X101" t="n">
         <v>0.1</v>
@@ -11608,7 +11617,7 @@
         <v>65</v>
       </c>
       <c r="Z101" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AA101" t="n">
         <v>0.1</v>
@@ -11617,7 +11626,7 @@
         <v>65</v>
       </c>
       <c r="AC101" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AD101" t="n">
         <v>0.1</v>
@@ -11626,15 +11635,15 @@
         <v>65</v>
       </c>
       <c r="AF101" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C102" t="n">
         <v>0.1</v>
@@ -11729,10 +11738,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -11741,7 +11750,7 @@
         <v>65</v>
       </c>
       <c r="E103" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
@@ -11750,7 +11759,7 @@
         <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I103" t="n">
         <v>0.1</v>
@@ -11759,7 +11768,7 @@
         <v>65</v>
       </c>
       <c r="K103" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L103" t="n">
         <v>0.3</v>
@@ -11827,7 +11836,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B104"/>
       <c r="C104" t="n">
@@ -11837,7 +11846,7 @@
         <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F104" t="n">
         <v>0.1</v>
@@ -11846,7 +11855,7 @@
         <v>60</v>
       </c>
       <c r="H104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I104" t="n">
         <v>0.1</v>
@@ -11855,7 +11864,7 @@
         <v>60</v>
       </c>
       <c r="K104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L104" t="n">
         <v>0.1</v>
@@ -11864,7 +11873,7 @@
         <v>60</v>
       </c>
       <c r="N104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O104" t="n">
         <v>0.1</v>
@@ -11873,7 +11882,7 @@
         <v>60</v>
       </c>
       <c r="Q104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R104" t="n">
         <v>0.1</v>
@@ -11882,7 +11891,7 @@
         <v>50</v>
       </c>
       <c r="T104" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="U104" t="n">
         <v>0.1</v>
@@ -11891,7 +11900,7 @@
         <v>50</v>
       </c>
       <c r="W104" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="X104" t="n">
         <v>0.1</v>
@@ -11900,7 +11909,7 @@
         <v>65</v>
       </c>
       <c r="Z104" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AA104" t="n">
         <v>0.1</v>
@@ -11909,7 +11918,7 @@
         <v>65</v>
       </c>
       <c r="AC104" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AD104" t="n">
         <v>0.1</v>
@@ -11918,15 +11927,15 @@
         <v>65</v>
       </c>
       <c r="AF104" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -11962,7 +11971,7 @@
         <v>65</v>
       </c>
       <c r="N105" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -11971,7 +11980,7 @@
         <v>65</v>
       </c>
       <c r="Q105" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -12021,10 +12030,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -12078,7 +12087,7 @@
         <v>90</v>
       </c>
       <c r="T106" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -12087,7 +12096,7 @@
         <v>90</v>
       </c>
       <c r="W106" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -12119,10 +12128,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B107" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C107" t="n">
         <v>0.1</v>
@@ -12131,7 +12140,7 @@
         <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F107" t="n">
         <v>0.1</v>
@@ -12140,7 +12149,7 @@
         <v>60</v>
       </c>
       <c r="H107" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I107" t="n">
         <v>0.1</v>
@@ -12149,7 +12158,7 @@
         <v>60</v>
       </c>
       <c r="K107" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L107" t="n">
         <v>0.1</v>
@@ -12158,7 +12167,7 @@
         <v>65</v>
       </c>
       <c r="N107" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O107" t="n">
         <v>0.1</v>
@@ -12167,7 +12176,7 @@
         <v>65</v>
       </c>
       <c r="Q107" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R107" t="n">
         <v>0.1</v>
@@ -12176,7 +12185,7 @@
         <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="U107" t="n">
         <v>0.1</v>
@@ -12185,7 +12194,7 @@
         <v>65</v>
       </c>
       <c r="W107" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="X107" t="n">
         <v>0.1</v>
@@ -12194,7 +12203,7 @@
         <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AA107" t="n">
         <v>0.1</v>
@@ -12203,7 +12212,7 @@
         <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AD107" t="n">
         <v>0.1</v>
@@ -12212,12 +12221,12 @@
         <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B108"/>
       <c r="C108" t="n">
@@ -12227,7 +12236,7 @@
         <v>65</v>
       </c>
       <c r="E108" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F108" t="n">
         <v>0.1</v>
@@ -12236,7 +12245,7 @@
         <v>65</v>
       </c>
       <c r="H108" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I108" t="n">
         <v>0.1</v>
@@ -12245,7 +12254,7 @@
         <v>65</v>
       </c>
       <c r="K108" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -12254,7 +12263,7 @@
         <v>65</v>
       </c>
       <c r="N108" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -12263,7 +12272,7 @@
         <v>65</v>
       </c>
       <c r="Q108" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="R108" t="n">
         <v>0.1</v>
@@ -12290,7 +12299,7 @@
         <v>85</v>
       </c>
       <c r="Z108" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AA108" t="n">
         <v>0</v>
@@ -12299,7 +12308,7 @@
         <v>85</v>
       </c>
       <c r="AC108" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AD108" t="n">
         <v>0</v>
@@ -12308,15 +12317,15 @@
         <v>85</v>
       </c>
       <c r="AF108" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C109" t="n">
         <v>0.1</v>
@@ -12388,7 +12397,7 @@
         <v>80</v>
       </c>
       <c r="Z109" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AA109" t="n">
         <v>0.1</v>
@@ -12397,7 +12406,7 @@
         <v>80</v>
       </c>
       <c r="AC109" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AD109" t="n">
         <v>0.1</v>
@@ -12406,12 +12415,12 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B110"/>
       <c r="C110" t="n">
@@ -12421,7 +12430,7 @@
         <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F110" t="n">
         <v>0.1</v>
@@ -12430,7 +12439,7 @@
         <v>65</v>
       </c>
       <c r="H110" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I110" t="n">
         <v>0.1</v>
@@ -12439,7 +12448,7 @@
         <v>65</v>
       </c>
       <c r="K110" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L110" t="n">
         <v>0.1</v>
@@ -12448,7 +12457,7 @@
         <v>60</v>
       </c>
       <c r="N110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O110" t="n">
         <v>0.1</v>
@@ -12457,7 +12466,7 @@
         <v>60</v>
       </c>
       <c r="Q110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R110" t="n">
         <v>0.1</v>
@@ -12466,7 +12475,7 @@
         <v>60</v>
       </c>
       <c r="T110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U110" t="n">
         <v>0.1</v>
@@ -12475,7 +12484,7 @@
         <v>60</v>
       </c>
       <c r="W110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="X110" t="n">
         <v>0.1</v>
@@ -12484,7 +12493,7 @@
         <v>65</v>
       </c>
       <c r="Z110" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AA110" t="n">
         <v>0.1</v>
@@ -12493,7 +12502,7 @@
         <v>65</v>
       </c>
       <c r="AC110" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AD110" t="n">
         <v>0.1</v>
@@ -12502,15 +12511,15 @@
         <v>65</v>
       </c>
       <c r="AF110" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
@@ -12605,10 +12614,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12644,7 +12653,7 @@
         <v>100</v>
       </c>
       <c r="N112" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O112" t="n">
         <v>0.2</v>
@@ -12653,7 +12662,7 @@
         <v>100</v>
       </c>
       <c r="Q112" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="R112" t="n">
         <v>0.2</v>
@@ -12703,10 +12712,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -12715,7 +12724,7 @@
         <v>65</v>
       </c>
       <c r="E113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F113" t="n">
         <v>0.1</v>
@@ -12724,7 +12733,7 @@
         <v>65</v>
       </c>
       <c r="H113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I113" t="n">
         <v>0.1</v>
@@ -12733,7 +12742,7 @@
         <v>65</v>
       </c>
       <c r="K113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L113" t="n">
         <v>0.1</v>
@@ -12742,7 +12751,7 @@
         <v>65</v>
       </c>
       <c r="N113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O113" t="n">
         <v>0.1</v>
@@ -12751,7 +12760,7 @@
         <v>65</v>
       </c>
       <c r="Q113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R113" t="n">
         <v>0.2</v>
@@ -12778,7 +12787,7 @@
         <v>65</v>
       </c>
       <c r="Z113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AA113" t="n">
         <v>0.1</v>
@@ -12787,7 +12796,7 @@
         <v>65</v>
       </c>
       <c r="AC113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AD113" t="n">
         <v>0.1</v>
@@ -12796,15 +12805,15 @@
         <v>65</v>
       </c>
       <c r="AF113" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B114" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C114" t="n">
         <v>0.2</v>
@@ -12840,7 +12849,7 @@
         <v>65</v>
       </c>
       <c r="N114" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O114" t="n">
         <v>0.1</v>
@@ -12849,7 +12858,7 @@
         <v>65</v>
       </c>
       <c r="Q114" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R114" t="n">
         <v>0.1</v>
@@ -12899,10 +12908,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B115" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -12911,7 +12920,7 @@
         <v>45</v>
       </c>
       <c r="E115" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F115" t="n">
         <v>0.1</v>
@@ -12920,7 +12929,7 @@
         <v>45</v>
       </c>
       <c r="H115" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I115" t="n">
         <v>0.1</v>
@@ -12929,7 +12938,7 @@
         <v>45</v>
       </c>
       <c r="K115" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L115" t="n">
         <v>0.1</v>
@@ -12938,7 +12947,7 @@
         <v>65</v>
       </c>
       <c r="N115" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O115" t="n">
         <v>0.1</v>
@@ -12947,7 +12956,7 @@
         <v>65</v>
       </c>
       <c r="Q115" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R115" t="n">
         <v>0.1</v>
@@ -12974,7 +12983,7 @@
         <v>60</v>
       </c>
       <c r="Z115" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA115" t="n">
         <v>0.1</v>
@@ -12983,7 +12992,7 @@
         <v>60</v>
       </c>
       <c r="AC115" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD115" t="n">
         <v>0.1</v>
@@ -12992,12 +13001,12 @@
         <v>60</v>
       </c>
       <c r="AF115" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B116"/>
       <c r="C116" t="n">
@@ -13007,7 +13016,7 @@
         <v>65</v>
       </c>
       <c r="E116" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F116" t="n">
         <v>0.1</v>
@@ -13016,7 +13025,7 @@
         <v>65</v>
       </c>
       <c r="H116" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I116" t="n">
         <v>0.1</v>
@@ -13025,7 +13034,7 @@
         <v>65</v>
       </c>
       <c r="K116" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L116" t="n">
         <v>0.2</v>
@@ -13052,7 +13061,7 @@
         <v>55</v>
       </c>
       <c r="T116" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="U116" t="n">
         <v>0.1</v>
@@ -13061,7 +13070,7 @@
         <v>55</v>
       </c>
       <c r="W116" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="X116" t="n">
         <v>0.1</v>
@@ -13070,7 +13079,7 @@
         <v>45</v>
       </c>
       <c r="Z116" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AA116" t="n">
         <v>0.1</v>
@@ -13079,7 +13088,7 @@
         <v>45</v>
       </c>
       <c r="AC116" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AD116" t="n">
         <v>0.1</v>
@@ -13088,15 +13097,15 @@
         <v>45</v>
       </c>
       <c r="AF116" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C117" t="n">
         <v>0.2</v>
@@ -13191,10 +13200,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C118" t="n">
         <v>0.1</v>
@@ -13203,7 +13212,7 @@
         <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F118" t="n">
         <v>0.1</v>
@@ -13212,7 +13221,7 @@
         <v>65</v>
       </c>
       <c r="H118" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I118" t="n">
         <v>0.1</v>
@@ -13221,7 +13230,7 @@
         <v>65</v>
       </c>
       <c r="K118" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L118" t="n">
         <v>0.1</v>
@@ -13230,7 +13239,7 @@
         <v>65</v>
       </c>
       <c r="N118" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O118" t="n">
         <v>0.1</v>
@@ -13239,7 +13248,7 @@
         <v>65</v>
       </c>
       <c r="Q118" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R118" t="n">
         <v>0.2</v>
@@ -13266,7 +13275,7 @@
         <v>60</v>
       </c>
       <c r="Z118" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA118" t="n">
         <v>0.1</v>
@@ -13275,7 +13284,7 @@
         <v>60</v>
       </c>
       <c r="AC118" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD118" t="n">
         <v>0.1</v>
@@ -13284,15 +13293,15 @@
         <v>60</v>
       </c>
       <c r="AF118" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B119" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -13301,7 +13310,7 @@
         <v>60</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -13310,7 +13319,7 @@
         <v>60</v>
       </c>
       <c r="H119" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -13319,7 +13328,7 @@
         <v>60</v>
       </c>
       <c r="K119" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L119" t="n">
         <v>0.1</v>
@@ -13328,7 +13337,7 @@
         <v>50</v>
       </c>
       <c r="N119" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O119" t="n">
         <v>0.1</v>
@@ -13337,7 +13346,7 @@
         <v>50</v>
       </c>
       <c r="Q119" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="R119" t="n">
         <v>0.1</v>
@@ -13346,7 +13355,7 @@
         <v>55</v>
       </c>
       <c r="T119" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="U119" t="n">
         <v>0.1</v>
@@ -13355,7 +13364,7 @@
         <v>55</v>
       </c>
       <c r="W119" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="X119" t="n">
         <v>0.1</v>
@@ -13364,7 +13373,7 @@
         <v>40</v>
       </c>
       <c r="Z119" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AA119" t="n">
         <v>0.1</v>
@@ -13373,7 +13382,7 @@
         <v>40</v>
       </c>
       <c r="AC119" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AD119" t="n">
         <v>0.1</v>
@@ -13382,12 +13391,12 @@
         <v>40</v>
       </c>
       <c r="AF119" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B120"/>
       <c r="C120" t="n">
@@ -13397,7 +13406,7 @@
         <v>65</v>
       </c>
       <c r="E120" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F120" t="n">
         <v>-0.1</v>
@@ -13406,7 +13415,7 @@
         <v>65</v>
       </c>
       <c r="H120" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I120" t="n">
         <v>-0.1</v>
@@ -13415,7 +13424,7 @@
         <v>65</v>
       </c>
       <c r="K120" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L120" t="n">
         <v>-0.1</v>
@@ -13424,7 +13433,7 @@
         <v>60</v>
       </c>
       <c r="N120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O120" t="n">
         <v>-0.1</v>
@@ -13433,7 +13442,7 @@
         <v>60</v>
       </c>
       <c r="Q120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R120" t="n">
         <v>-0.1</v>
@@ -13442,7 +13451,7 @@
         <v>60</v>
       </c>
       <c r="T120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U120" t="n">
         <v>-0.1</v>
@@ -13451,7 +13460,7 @@
         <v>60</v>
       </c>
       <c r="W120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X120" t="n">
         <v>-0.1</v>
@@ -13460,7 +13469,7 @@
         <v>70</v>
       </c>
       <c r="Z120" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AA120" t="n">
         <v>-0.1</v>
@@ -13469,7 +13478,7 @@
         <v>70</v>
       </c>
       <c r="AC120" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AD120" t="n">
         <v>-0.1</v>
@@ -13478,15 +13487,15 @@
         <v>70</v>
       </c>
       <c r="AF120" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C121" t="n">
         <v>0.1</v>
@@ -13495,7 +13504,7 @@
         <v>65</v>
       </c>
       <c r="E121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F121" t="n">
         <v>0.1</v>
@@ -13504,7 +13513,7 @@
         <v>65</v>
       </c>
       <c r="H121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I121" t="n">
         <v>0.1</v>
@@ -13513,7 +13522,7 @@
         <v>65</v>
       </c>
       <c r="K121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L121" t="n">
         <v>0.1</v>
@@ -13522,7 +13531,7 @@
         <v>65</v>
       </c>
       <c r="N121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O121" t="n">
         <v>0.1</v>
@@ -13531,7 +13540,7 @@
         <v>65</v>
       </c>
       <c r="Q121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R121" t="n">
         <v>0.1</v>
@@ -13540,7 +13549,7 @@
         <v>65</v>
       </c>
       <c r="T121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="U121" t="n">
         <v>0.1</v>
@@ -13549,7 +13558,7 @@
         <v>65</v>
       </c>
       <c r="W121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="X121" t="n">
         <v>0.1</v>
@@ -13558,7 +13567,7 @@
         <v>65</v>
       </c>
       <c r="Z121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AA121" t="n">
         <v>0.1</v>
@@ -13567,7 +13576,7 @@
         <v>65</v>
       </c>
       <c r="AC121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AD121" t="n">
         <v>0.1</v>
@@ -13576,12 +13585,12 @@
         <v>65</v>
       </c>
       <c r="AF121" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B122"/>
       <c r="C122" t="n">
@@ -13618,7 +13627,7 @@
         <v>65</v>
       </c>
       <c r="N122" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O122" t="n">
         <v>0.1</v>
@@ -13627,7 +13636,7 @@
         <v>65</v>
       </c>
       <c r="Q122" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R122" t="n">
         <v>0.1</v>
@@ -13636,7 +13645,7 @@
         <v>40</v>
       </c>
       <c r="T122" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U122" t="n">
         <v>0.1</v>
@@ -13645,7 +13654,7 @@
         <v>40</v>
       </c>
       <c r="W122" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X122" t="n">
         <v>0.1</v>
@@ -13654,7 +13663,7 @@
         <v>60</v>
       </c>
       <c r="Z122" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA122" t="n">
         <v>0.1</v>
@@ -13663,7 +13672,7 @@
         <v>60</v>
       </c>
       <c r="AC122" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD122" t="n">
         <v>0.1</v>
@@ -13672,15 +13681,15 @@
         <v>60</v>
       </c>
       <c r="AF122" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C123" t="n">
         <v>0.1</v>
@@ -13716,7 +13725,7 @@
         <v>65</v>
       </c>
       <c r="N123" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O123" t="n">
         <v>0.1</v>
@@ -13725,7 +13734,7 @@
         <v>65</v>
       </c>
       <c r="Q123" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R123" t="n">
         <v>0.1</v>
@@ -13752,7 +13761,7 @@
         <v>65</v>
       </c>
       <c r="Z123" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AA123" t="n">
         <v>0.1</v>
@@ -13761,7 +13770,7 @@
         <v>65</v>
       </c>
       <c r="AC123" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AD123" t="n">
         <v>0.1</v>
@@ -13770,15 +13779,15 @@
         <v>65</v>
       </c>
       <c r="AF123" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C124" t="n">
         <v>0.2</v>
@@ -13873,10 +13882,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C125" t="n">
         <v>0.1</v>
@@ -13885,7 +13894,7 @@
         <v>65</v>
       </c>
       <c r="E125" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F125" t="n">
         <v>0.1</v>
@@ -13894,7 +13903,7 @@
         <v>65</v>
       </c>
       <c r="H125" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I125" t="n">
         <v>0.1</v>
@@ -13903,7 +13912,7 @@
         <v>65</v>
       </c>
       <c r="K125" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L125" t="n">
         <v>0.1</v>
@@ -13912,7 +13921,7 @@
         <v>65</v>
       </c>
       <c r="N125" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O125" t="n">
         <v>0.1</v>
@@ -13921,7 +13930,7 @@
         <v>65</v>
       </c>
       <c r="Q125" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R125" t="n">
         <v>0.2</v>
@@ -13948,7 +13957,7 @@
         <v>60</v>
       </c>
       <c r="Z125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA125" t="n">
         <v>0.1</v>
@@ -13957,7 +13966,7 @@
         <v>60</v>
       </c>
       <c r="AC125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD125" t="n">
         <v>0.1</v>
@@ -13966,15 +13975,15 @@
         <v>60</v>
       </c>
       <c r="AF125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C126" t="n">
         <v>0.1</v>
@@ -13983,7 +13992,7 @@
         <v>65</v>
       </c>
       <c r="E126" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F126" t="n">
         <v>0.1</v>
@@ -13992,7 +14001,7 @@
         <v>65</v>
       </c>
       <c r="H126" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I126" t="n">
         <v>0.1</v>
@@ -14001,7 +14010,7 @@
         <v>65</v>
       </c>
       <c r="K126" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L126" t="n">
         <v>0.1</v>
@@ -14069,10 +14078,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C127" t="n">
         <v>0.2</v>
@@ -14099,7 +14108,7 @@
         <v>75</v>
       </c>
       <c r="K127" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L127" t="n">
         <v>0.2</v>
@@ -14167,7 +14176,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B128"/>
       <c r="C128" t="n">
@@ -14263,10 +14272,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B129" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C129" t="n">
         <v>0.2</v>
@@ -14302,7 +14311,7 @@
         <v>55</v>
       </c>
       <c r="N129" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="O129" t="n">
         <v>0.1</v>
@@ -14311,7 +14320,7 @@
         <v>55</v>
       </c>
       <c r="Q129" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="R129" t="n">
         <v>0.2</v>
@@ -14338,7 +14347,7 @@
         <v>55</v>
       </c>
       <c r="Z129" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AA129" t="n">
         <v>0.2</v>
@@ -14347,7 +14356,7 @@
         <v>55</v>
       </c>
       <c r="AC129" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AD129" t="n">
         <v>0.2</v>
@@ -14356,15 +14365,15 @@
         <v>55</v>
       </c>
       <c r="AF129" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B130" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C130" t="n">
         <v>0.1</v>
@@ -14373,7 +14382,7 @@
         <v>65</v>
       </c>
       <c r="E130" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="F130" t="n">
         <v>0.1</v>
@@ -14382,7 +14391,7 @@
         <v>65</v>
       </c>
       <c r="H130" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I130" t="n">
         <v>0.1</v>
@@ -14391,7 +14400,7 @@
         <v>65</v>
       </c>
       <c r="K130" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="L130" t="n">
         <v>0.1</v>
@@ -14400,7 +14409,7 @@
         <v>65</v>
       </c>
       <c r="N130" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="O130" t="n">
         <v>0.1</v>
@@ -14409,7 +14418,7 @@
         <v>65</v>
       </c>
       <c r="Q130" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="R130" t="n">
         <v>0.1</v>
@@ -14418,7 +14427,7 @@
         <v>65</v>
       </c>
       <c r="T130" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="U130" t="n">
         <v>0.1</v>
@@ -14427,7 +14436,7 @@
         <v>65</v>
       </c>
       <c r="W130" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="X130" t="n">
         <v>0.2</v>
@@ -14459,10 +14468,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B131" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C131" t="n">
         <v>0.1</v>
@@ -14471,7 +14480,7 @@
         <v>55</v>
       </c>
       <c r="E131" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="F131" t="n">
         <v>0.1</v>
@@ -14480,7 +14489,7 @@
         <v>55</v>
       </c>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="I131" t="n">
         <v>0.1</v>
@@ -14489,7 +14498,7 @@
         <v>55</v>
       </c>
       <c r="K131" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="L131" t="n">
         <v>0.1</v>
@@ -14498,7 +14507,7 @@
         <v>60</v>
       </c>
       <c r="N131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O131" t="n">
         <v>0.1</v>
@@ -14507,7 +14516,7 @@
         <v>60</v>
       </c>
       <c r="Q131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R131" t="n">
         <v>0.2</v>
@@ -14534,7 +14543,7 @@
         <v>55</v>
       </c>
       <c r="Z131" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="AA131" t="n">
         <v>0.1</v>
@@ -14543,7 +14552,7 @@
         <v>55</v>
       </c>
       <c r="AC131" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="AD131" t="n">
         <v>0.1</v>
@@ -14552,7 +14561,7 @@
         <v>55</v>
       </c>
       <c r="AF131" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
